--- a/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,34</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>-13,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>156,45%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 23,37</t>
+          <t>-9,89; 5,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 41,51</t>
+          <t>-5,72; 4,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 14,48</t>
+          <t>-2,75; 4,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 12,86</t>
+          <t>-1,43; 3,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 22,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 80,36</t>
+          <t>-67,04; 130,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 497,21</t>
+          <t>-74,47; 252,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 176,27</t>
+          <t>-57,92; 201,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 594,49</t>
+          <t>-60,66; 357,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 300,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>-35,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,27%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 11,92</t>
+          <t>-6,51; 4,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 10,55</t>
+          <t>-7,13; 0,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 8,14</t>
+          <t>-2,67; 3,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 14,37</t>
+          <t>-1,26; 4,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 43,88</t>
+          <t>-45,95; 52,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 74,3</t>
+          <t>-65,27; 19,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 88,22</t>
+          <t>-38,79; 78,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 203,22</t>
+          <t>-24,26; 145,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 121,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>-20,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 28,2</t>
+          <t>-0,74; 9,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 10,86</t>
+          <t>-8,72; 3,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 10,16</t>
+          <t>-2,19; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,83</t>
+          <t>-1,38; 3,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 21,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 184,29</t>
+          <t>-16,56; 314,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 55,23</t>
+          <t>-71,93; 97,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 167,23</t>
+          <t>-47,16; 204,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 201,92</t>
+          <t>-30,34; 277,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 449,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>-32,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 13,0</t>
+          <t>-3,33; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 11,04</t>
+          <t>-8,01; 1,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,94</t>
+          <t>-4,69; 1,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 49,21</t>
+          <t>-28,02; 30,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 67,82</t>
+          <t>-59,24; 30,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 68,87</t>
+          <t>-73,53; 44,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 154,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 129,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-26,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 1,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 0,26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 1,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 2,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-19,89; 22,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-50,51; 3,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-25,27; 46,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 114,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-13,8%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>29,29%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>42,27%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>15.53109366481212</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.15517446406767</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.760919277943746</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.421438280040006</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>0.5220203089613119</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8276638524872226</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.753531325911673</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.9445481087405206</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 5,92</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 4,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 4,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 3,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-67,04; 130,96</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-74,47; 252,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-57,92; 201,35</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-60,66; 357,24</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.233065383281687</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.933090926510008</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.39973133855754</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.977055143163783</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.1934202362540282</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4528328007003738</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2489133447067953</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4187167606069129</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>41.13436482399608</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.54039724872666</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.74727789674156</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.46885094934088</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>2.973466570505111</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>5.660254572169456</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.305285765826315</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.357075681706627</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-11,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-35,95%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>41,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 4,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 0,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 4,08</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-45,95; 52,89</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-65,27; 19,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-38,79; 78,46</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-24,26; 145,78</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.1282833145690609</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.594946619358857</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.595869730281138</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.658608333530291</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-0.003962380912591696</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1188748607355561</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1096057431795691</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.7507588842328363</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>90,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-20,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>29,02%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>51,8%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.22706474444397</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.09937155243093</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.398166992891642</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.6425260605090598</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.3889065378149187</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4672622080079883</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.335480593920134</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.03154155502211679</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 9,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 3,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 3,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 3,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; 314,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-71,93; 97,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-47,16; 204,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-30,34; 277,23</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.89604762527989</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.277767777100603</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.909895357504652</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.60116911154507</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.6413648933818904</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6127926357950721</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9713919438880099</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.100847094793226</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-25,55%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-32,98%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>10.11992078379151</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.125164015630982</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.427755652582887</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.969098795571869</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.4143946096745522</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.07785516951372635</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3242751206780856</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5034779789739128</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 2,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 1,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 1,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-28,02; 30,48</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-59,24; 30,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-73,53; 44,17</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.284338147373827</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-24.05236230445851</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.469315899052305</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.461962874102938</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.2519400983644719</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6168416133118728</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3765454705860484</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2761934735524759</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.71692504517453</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.99590446513997</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.78447484106015</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.08154413979172</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.87797604170819</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.8606352982284405</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.038753176111822</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.295494784498418</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,68%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-26,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>40,17%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 1,99</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 0,26</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 1,7</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 2,77</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-19,89; 22,62</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-50,51; 3,79</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-25,27; 46,99</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; 114,76</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.5337844842963</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1017709061961497</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.199066108125065</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.017151143689542</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.1510044631503557</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.004587494578268298</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2538656956867853</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6741354164541877</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.302514975741954</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.4039268678014</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.364893621423771</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.808531077686994</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.1467659225281899</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3533109297238834</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1542772112474552</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1346929712501729</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.85039346815018</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.028886811910187</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.037122449942441</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.04221502251702</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.5938458919822129</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5252982321095444</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8056489204576441</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.457988250282571</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
